--- a/assets/file_for_reference/N4Words.xlsx
+++ b/assets/file_for_reference/N4Words.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung\Documents\PANDASAPPS\PandasJp\assets\file_for_reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CWH595\Documents\personal\PandasJp\assets\file_for_reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F4EED-3CB3-4FF1-B055-E1DAFEC8228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="3585" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="3585" windowWidth="16440" windowHeight="28320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4717" uniqueCount="2744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="2751">
   <si>
     <t>word_id</t>
   </si>
@@ -8266,17 +8265,41 @@
   </si>
   <si>
     <t>碎、壞了；裂開；整除；分裂；暴露、敗露；聲音難聽、刺耳</t>
+  </si>
+  <si>
+    <t>radio cassette player</t>
+  </si>
+  <si>
+    <t>指結合收音機與卡帶播放功能的音響設備</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>出色、優秀</t>
+  </si>
+  <si>
+    <t>ラジカセ / ラジオカセット</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ら</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名詞</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -8284,6 +8307,29 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8321,11 +8367,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8627,16 +8679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G943"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H945"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D943"/>
+    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8659,7 +8711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8683,7 +8735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8707,7 +8759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8731,7 +8783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8755,7 +8807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8779,7 +8831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8803,7 +8855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8827,7 +8879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8851,7 +8903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8875,7 +8927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8899,7 +8951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8923,7 +8975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8947,7 +8999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8971,7 +9023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8995,7 +9047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9019,7 +9071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9043,7 +9095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9067,7 +9119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9091,7 +9143,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9115,7 +9167,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9139,7 +9191,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9163,7 +9215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9187,7 +9239,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9211,7 +9263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9235,7 +9287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9259,7 +9311,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9283,7 +9335,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9307,7 +9359,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9331,7 +9383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9355,7 +9407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9379,7 +9431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9403,7 +9455,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9427,7 +9479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9451,7 +9503,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9475,7 +9527,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9499,7 +9551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9523,7 +9575,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9547,7 +9599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9571,7 +9623,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9595,7 +9647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9619,7 +9671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9643,7 +9695,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9667,7 +9719,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9691,7 +9743,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9715,7 +9767,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9739,7 +9791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9763,7 +9815,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9787,7 +9839,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9811,7 +9863,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9835,7 +9887,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9859,7 +9911,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9883,7 +9935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9907,7 +9959,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9931,7 +9983,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9955,7 +10007,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9979,7 +10031,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10003,7 +10055,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10027,7 +10079,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10051,7 +10103,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10075,7 +10127,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10099,7 +10151,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10123,7 +10175,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10147,7 +10199,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10171,7 +10223,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10195,7 +10247,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10219,7 +10271,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10243,7 +10295,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10267,7 +10319,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10291,7 +10343,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10315,7 +10367,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10339,7 +10391,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10363,7 +10415,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10387,7 +10439,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10411,7 +10463,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10435,7 +10487,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10459,7 +10511,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10483,7 +10535,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10507,7 +10559,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10531,7 +10583,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10555,7 +10607,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10579,7 +10631,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10603,7 +10655,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10627,7 +10679,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10651,7 +10703,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10675,7 +10727,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10699,7 +10751,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10723,7 +10775,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10747,7 +10799,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10771,7 +10823,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10795,7 +10847,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10819,7 +10871,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10843,7 +10895,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10867,7 +10919,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10891,7 +10943,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10915,7 +10967,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10939,7 +10991,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10963,7 +11015,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10987,7 +11039,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11011,7 +11063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11035,7 +11087,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11059,7 +11111,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11083,7 +11135,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -11107,7 +11159,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11131,7 +11183,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11155,7 +11207,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11179,7 +11231,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11203,7 +11255,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11227,7 +11279,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11251,7 +11303,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11275,7 +11327,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11299,7 +11351,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11323,7 +11375,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11347,7 +11399,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11371,7 +11423,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11395,7 +11447,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11419,7 +11471,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11443,7 +11495,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11467,7 +11519,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11491,7 +11543,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11515,7 +11567,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11539,7 +11591,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11563,7 +11615,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11587,7 +11639,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11611,7 +11663,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11635,7 +11687,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11659,7 +11711,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11683,7 +11735,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11707,7 +11759,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11731,7 +11783,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11755,7 +11807,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11779,7 +11831,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11803,7 +11855,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11827,7 +11879,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11851,7 +11903,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11875,7 +11927,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -11899,7 +11951,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11923,7 +11975,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11947,7 +11999,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11971,7 +12023,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11995,7 +12047,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -12019,7 +12071,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -12043,7 +12095,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -12067,7 +12119,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12091,7 +12143,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12115,7 +12167,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -12139,7 +12191,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -12163,7 +12215,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -12187,7 +12239,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -12211,7 +12263,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -12235,7 +12287,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -12259,7 +12311,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -12283,7 +12335,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -12307,7 +12359,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -12331,7 +12383,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -12355,7 +12407,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -12379,7 +12431,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -12403,7 +12455,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -12427,7 +12479,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -12451,7 +12503,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -12475,7 +12527,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -12499,7 +12551,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -12523,7 +12575,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -12547,7 +12599,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -12571,7 +12623,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -12595,7 +12647,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -12619,7 +12671,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -12643,7 +12695,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -12667,7 +12719,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -12691,7 +12743,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -12715,7 +12767,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -12739,7 +12791,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -12763,7 +12815,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -12787,7 +12839,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -12811,7 +12863,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -12835,7 +12887,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -12859,7 +12911,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -12883,7 +12935,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -12907,7 +12959,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -12931,7 +12983,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -12955,7 +13007,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -12979,7 +13031,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -13003,7 +13055,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -13027,7 +13079,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -13051,7 +13103,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -13075,7 +13127,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -13099,7 +13151,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -13123,7 +13175,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -13147,7 +13199,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -13171,7 +13223,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -13195,7 +13247,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -13219,7 +13271,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -13243,7 +13295,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -13267,7 +13319,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -13291,7 +13343,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -13315,7 +13367,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -13339,7 +13391,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -13363,7 +13415,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13387,7 +13439,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -13411,7 +13463,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13435,7 +13487,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13459,7 +13511,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -13483,7 +13535,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -13507,7 +13559,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -13531,7 +13583,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -13555,7 +13607,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -13579,7 +13631,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -13603,7 +13655,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -13627,7 +13679,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -13651,7 +13703,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -13675,7 +13727,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -13699,7 +13751,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -13723,7 +13775,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -13747,7 +13799,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -13771,7 +13823,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -13795,7 +13847,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -13819,7 +13871,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -13843,7 +13895,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -13867,7 +13919,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -13891,7 +13943,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -13915,7 +13967,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -13939,7 +13991,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -13963,7 +14015,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -13987,7 +14039,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -14011,7 +14063,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -14035,7 +14087,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -14059,7 +14111,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -14083,7 +14135,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -14107,7 +14159,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -14131,7 +14183,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -14155,7 +14207,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -14179,7 +14231,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -14203,7 +14255,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -14227,7 +14279,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -14251,7 +14303,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -14275,7 +14327,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -14299,7 +14351,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -14323,7 +14375,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -14347,7 +14399,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -14371,7 +14423,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14395,7 +14447,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -14419,7 +14471,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -14443,7 +14495,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -14467,7 +14519,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14491,7 +14543,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14515,7 +14567,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14539,7 +14591,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -14563,7 +14615,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -14587,7 +14639,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -14611,7 +14663,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -14635,7 +14687,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -14659,7 +14711,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14683,7 +14735,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -14707,7 +14759,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14731,7 +14783,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -14755,7 +14807,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -14779,7 +14831,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -14803,7 +14855,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -14827,7 +14879,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -14851,7 +14903,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -14875,7 +14927,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -14899,7 +14951,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -14923,7 +14975,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -14947,7 +14999,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -14971,7 +15023,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -14995,7 +15047,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -15019,7 +15071,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -15043,7 +15095,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -15067,7 +15119,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -15091,7 +15143,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -15115,7 +15167,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -15139,7 +15191,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -15163,7 +15215,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -15187,7 +15239,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -15211,7 +15263,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -15235,7 +15287,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -15259,7 +15311,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -15283,7 +15335,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -15307,7 +15359,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -15331,7 +15383,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -15355,7 +15407,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -15379,7 +15431,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -15403,7 +15455,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -15427,7 +15479,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -15451,7 +15503,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -15475,7 +15527,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -15499,7 +15551,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -15523,7 +15575,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -15547,7 +15599,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -15571,7 +15623,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15595,7 +15647,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15619,7 +15671,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15643,7 +15695,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -15667,7 +15719,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -15691,7 +15743,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -15715,7 +15767,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -15739,7 +15791,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -15763,7 +15815,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15787,7 +15839,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15811,7 +15863,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -15835,7 +15887,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -15859,7 +15911,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -15883,7 +15935,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15907,7 +15959,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15931,7 +15983,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -15955,7 +16007,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15979,7 +16031,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -16003,7 +16055,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -16027,7 +16079,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -16051,7 +16103,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -16075,7 +16127,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -16099,7 +16151,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -16123,7 +16175,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -16147,7 +16199,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -16171,7 +16223,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -16195,7 +16247,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -16219,7 +16271,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -16243,7 +16295,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -16267,7 +16319,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -16291,7 +16343,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -16315,7 +16367,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -16339,7 +16391,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -16363,7 +16415,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -16387,7 +16439,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16411,7 +16463,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16435,7 +16487,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16459,7 +16511,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -16483,7 +16535,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -16507,7 +16559,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -16531,7 +16583,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16555,7 +16607,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16579,7 +16631,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16603,7 +16655,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16627,7 +16679,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16651,7 +16703,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16675,7 +16727,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16699,7 +16751,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16723,7 +16775,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16747,7 +16799,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16771,7 +16823,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16795,7 +16847,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16819,7 +16871,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16843,7 +16895,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16867,7 +16919,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16891,7 +16943,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16915,7 +16967,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16939,7 +16991,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16963,7 +17015,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16987,7 +17039,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -17011,7 +17063,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -17035,7 +17087,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -17059,7 +17111,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -17083,7 +17135,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -17107,7 +17159,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17131,7 +17183,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17155,7 +17207,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17179,7 +17231,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17203,7 +17255,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17227,7 +17279,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17251,7 +17303,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17275,7 +17327,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -17299,7 +17351,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -17323,7 +17375,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17347,7 +17399,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17371,7 +17423,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17395,7 +17447,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17419,7 +17471,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17443,7 +17495,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17467,7 +17519,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17491,7 +17543,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17515,7 +17567,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17539,7 +17591,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17563,7 +17615,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -17587,7 +17639,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -17611,7 +17663,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -17635,7 +17687,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -17659,7 +17711,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -17683,7 +17735,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -17707,7 +17759,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -17731,7 +17783,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -17755,7 +17807,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -17779,7 +17831,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -17803,7 +17855,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -17827,7 +17879,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -17851,7 +17903,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -17875,7 +17927,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -17899,7 +17951,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -17923,7 +17975,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -17947,7 +17999,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -17971,7 +18023,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -17995,7 +18047,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -18019,7 +18071,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -18043,7 +18095,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18067,7 +18119,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18091,7 +18143,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18115,7 +18167,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18139,7 +18191,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -18163,7 +18215,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -18187,7 +18239,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -18211,7 +18263,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -18235,7 +18287,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -18259,7 +18311,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -18283,7 +18335,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -18307,7 +18359,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -18331,7 +18383,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -18355,7 +18407,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -18379,7 +18431,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -18403,7 +18455,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -18427,7 +18479,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -18451,7 +18503,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -18475,7 +18527,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -18499,7 +18551,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -18523,7 +18575,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -18547,7 +18599,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -18571,7 +18623,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -18595,7 +18647,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -18619,7 +18671,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -18643,7 +18695,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -18667,7 +18719,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -18691,7 +18743,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -18715,7 +18767,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -18739,7 +18791,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -18763,7 +18815,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -18787,7 +18839,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -18811,7 +18863,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -18835,7 +18887,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -18859,7 +18911,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -18883,7 +18935,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -18907,7 +18959,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -18931,7 +18983,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -18955,7 +19007,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -18979,7 +19031,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -19003,7 +19055,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -19027,7 +19079,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -19051,7 +19103,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -19075,7 +19127,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -19099,7 +19151,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -19123,7 +19175,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -19147,7 +19199,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -19171,7 +19223,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -19195,7 +19247,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -19219,7 +19271,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -19243,7 +19295,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -19267,7 +19319,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -19291,7 +19343,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -19315,7 +19367,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -19339,7 +19391,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -19363,7 +19415,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -19387,7 +19439,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -19411,7 +19463,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -19435,7 +19487,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -19459,7 +19511,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -19483,7 +19535,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -19507,7 +19559,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -19531,7 +19583,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -19555,7 +19607,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -19579,7 +19631,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -19603,7 +19655,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -19627,7 +19679,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -19651,7 +19703,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -19675,7 +19727,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -19699,7 +19751,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -19723,7 +19775,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -19747,7 +19799,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -19771,7 +19823,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -19795,7 +19847,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -19819,7 +19871,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -19843,7 +19895,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -19867,7 +19919,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -19891,7 +19943,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -19915,7 +19967,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -19939,7 +19991,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -19963,7 +20015,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -19987,7 +20039,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -20011,7 +20063,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -20035,7 +20087,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -20059,7 +20111,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -20083,7 +20135,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -20107,7 +20159,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -20131,7 +20183,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -20155,7 +20207,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -20179,7 +20231,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -20203,7 +20255,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -20227,7 +20279,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -20251,7 +20303,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -20275,7 +20327,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -20299,7 +20351,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -20323,7 +20375,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -20347,7 +20399,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -20371,7 +20423,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -20395,7 +20447,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -20419,7 +20471,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -20443,7 +20495,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -20467,7 +20519,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -20491,7 +20543,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -20515,7 +20567,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -20539,7 +20591,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -20563,7 +20615,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -20587,7 +20639,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -20611,7 +20663,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -20635,7 +20687,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -20659,7 +20711,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -20683,7 +20735,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -20707,7 +20759,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -20731,7 +20783,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -20755,7 +20807,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -20779,7 +20831,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -20803,7 +20855,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -20827,7 +20879,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -20851,7 +20903,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -20875,7 +20927,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -20899,7 +20951,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -20923,7 +20975,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -20947,7 +20999,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -20971,7 +21023,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -20995,7 +21047,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -21019,7 +21071,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -21043,7 +21095,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -21067,7 +21119,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -21091,7 +21143,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -21115,7 +21167,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -21139,7 +21191,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -21163,7 +21215,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -21187,7 +21239,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -21211,7 +21263,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -21235,7 +21287,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
@@ -21259,7 +21311,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -21283,7 +21335,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -21307,7 +21359,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -21331,7 +21383,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
@@ -21355,7 +21407,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -21379,7 +21431,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -21403,7 +21455,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -21427,7 +21479,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -21451,7 +21503,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -21475,7 +21527,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -21499,7 +21551,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -21523,7 +21575,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -21547,7 +21599,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
@@ -21571,7 +21623,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -21595,7 +21647,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
@@ -21619,7 +21671,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -21643,7 +21695,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
@@ -21667,7 +21719,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -21691,7 +21743,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -21715,7 +21767,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -21739,7 +21791,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -21763,7 +21815,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -21787,7 +21839,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -21811,7 +21863,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -21835,7 +21887,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -21859,7 +21911,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -21883,7 +21935,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -21907,7 +21959,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -21931,7 +21983,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -21955,7 +22007,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
@@ -21979,7 +22031,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
@@ -22003,7 +22055,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>557</v>
       </c>
@@ -22027,7 +22079,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -22051,7 +22103,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
@@ -22075,7 +22127,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>560</v>
       </c>
@@ -22099,7 +22151,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>561</v>
       </c>
@@ -22123,7 +22175,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
@@ -22147,7 +22199,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>563</v>
       </c>
@@ -22171,7 +22223,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>564</v>
       </c>
@@ -22195,7 +22247,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>565</v>
       </c>
@@ -22219,7 +22271,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
@@ -22243,7 +22295,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>567</v>
       </c>
@@ -22267,7 +22319,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>568</v>
       </c>
@@ -22291,7 +22343,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -22315,7 +22367,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
@@ -22339,7 +22391,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
@@ -22363,7 +22415,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>572</v>
       </c>
@@ -22387,7 +22439,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>573</v>
       </c>
@@ -22411,7 +22463,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>574</v>
       </c>
@@ -22435,7 +22487,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>575</v>
       </c>
@@ -22459,7 +22511,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>576</v>
       </c>
@@ -22483,7 +22535,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>577</v>
       </c>
@@ -22507,7 +22559,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>578</v>
       </c>
@@ -22531,7 +22583,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>579</v>
       </c>
@@ -22555,7 +22607,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>580</v>
       </c>
@@ -22579,7 +22631,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>581</v>
       </c>
@@ -22603,7 +22655,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>582</v>
       </c>
@@ -22627,7 +22679,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>583</v>
       </c>
@@ -22651,7 +22703,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>584</v>
       </c>
@@ -22675,7 +22727,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>585</v>
       </c>
@@ -22699,7 +22751,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>586</v>
       </c>
@@ -22723,7 +22775,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
@@ -22747,7 +22799,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>588</v>
       </c>
@@ -22771,7 +22823,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>589</v>
       </c>
@@ -22795,7 +22847,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>590</v>
       </c>
@@ -22819,7 +22871,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>591</v>
       </c>
@@ -22843,7 +22895,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>592</v>
       </c>
@@ -22867,7 +22919,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>593</v>
       </c>
@@ -22891,7 +22943,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>594</v>
       </c>
@@ -22915,7 +22967,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>595</v>
       </c>
@@ -22939,7 +22991,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>596</v>
       </c>
@@ -22963,7 +23015,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>597</v>
       </c>
@@ -22987,7 +23039,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>598</v>
       </c>
@@ -23011,7 +23063,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>599</v>
       </c>
@@ -23035,7 +23087,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>600</v>
       </c>
@@ -23059,7 +23111,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>601</v>
       </c>
@@ -23083,7 +23135,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>602</v>
       </c>
@@ -23107,7 +23159,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>603</v>
       </c>
@@ -23131,7 +23183,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>604</v>
       </c>
@@ -23155,7 +23207,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>605</v>
       </c>
@@ -23179,7 +23231,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>606</v>
       </c>
@@ -23203,7 +23255,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>607</v>
       </c>
@@ -23227,7 +23279,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>608</v>
       </c>
@@ -23251,7 +23303,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>609</v>
       </c>
@@ -23275,7 +23327,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>610</v>
       </c>
@@ -23299,7 +23351,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>611</v>
       </c>
@@ -23323,7 +23375,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>612</v>
       </c>
@@ -23347,7 +23399,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>613</v>
       </c>
@@ -23371,7 +23423,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>614</v>
       </c>
@@ -23395,7 +23447,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -23419,7 +23471,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>616</v>
       </c>
@@ -23443,7 +23495,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>617</v>
       </c>
@@ -23467,7 +23519,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>618</v>
       </c>
@@ -23491,7 +23543,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>619</v>
       </c>
@@ -23515,7 +23567,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>620</v>
       </c>
@@ -23539,7 +23591,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>621</v>
       </c>
@@ -23563,7 +23615,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>622</v>
       </c>
@@ -23587,7 +23639,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>623</v>
       </c>
@@ -23611,7 +23663,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>624</v>
       </c>
@@ -23635,7 +23687,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>625</v>
       </c>
@@ -23659,7 +23711,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -23683,7 +23735,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -23707,7 +23759,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -23731,7 +23783,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>629</v>
       </c>
@@ -23755,7 +23807,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -23779,7 +23831,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -23803,7 +23855,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>632</v>
       </c>
@@ -23827,7 +23879,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>633</v>
       </c>
@@ -23851,7 +23903,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>634</v>
       </c>
@@ -23875,7 +23927,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>635</v>
       </c>
@@ -23899,7 +23951,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>636</v>
       </c>
@@ -23923,7 +23975,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>637</v>
       </c>
@@ -23947,7 +23999,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>638</v>
       </c>
@@ -23971,7 +24023,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>639</v>
       </c>
@@ -23995,7 +24047,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>640</v>
       </c>
@@ -24019,7 +24071,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>641</v>
       </c>
@@ -24043,7 +24095,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>642</v>
       </c>
@@ -24067,7 +24119,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>643</v>
       </c>
@@ -24091,7 +24143,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>644</v>
       </c>
@@ -24115,7 +24167,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>645</v>
       </c>
@@ -24139,7 +24191,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>646</v>
       </c>
@@ -24163,7 +24215,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>647</v>
       </c>
@@ -24187,7 +24239,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>648</v>
       </c>
@@ -24211,7 +24263,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>649</v>
       </c>
@@ -24235,7 +24287,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>650</v>
       </c>
@@ -24259,7 +24311,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>651</v>
       </c>
@@ -24283,7 +24335,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>652</v>
       </c>
@@ -24307,7 +24359,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>653</v>
       </c>
@@ -24331,7 +24383,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>654</v>
       </c>
@@ -24355,7 +24407,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>655</v>
       </c>
@@ -24379,7 +24431,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>656</v>
       </c>
@@ -24403,7 +24455,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>657</v>
       </c>
@@ -24427,7 +24479,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>658</v>
       </c>
@@ -24451,7 +24503,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>659</v>
       </c>
@@ -24475,7 +24527,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>660</v>
       </c>
@@ -24499,7 +24551,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>661</v>
       </c>
@@ -24523,7 +24575,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>662</v>
       </c>
@@ -24547,7 +24599,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>663</v>
       </c>
@@ -24571,7 +24623,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>664</v>
       </c>
@@ -24595,7 +24647,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>665</v>
       </c>
@@ -24619,7 +24671,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>666</v>
       </c>
@@ -24643,7 +24695,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>667</v>
       </c>
@@ -24667,7 +24719,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>668</v>
       </c>
@@ -24691,7 +24743,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>669</v>
       </c>
@@ -24715,7 +24767,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>670</v>
       </c>
@@ -24739,7 +24791,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>671</v>
       </c>
@@ -24763,7 +24815,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>672</v>
       </c>
@@ -24787,7 +24839,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>673</v>
       </c>
@@ -24811,7 +24863,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>674</v>
       </c>
@@ -24835,7 +24887,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>675</v>
       </c>
@@ -24859,7 +24911,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>676</v>
       </c>
@@ -24883,7 +24935,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>677</v>
       </c>
@@ -24907,7 +24959,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>678</v>
       </c>
@@ -24931,7 +24983,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>679</v>
       </c>
@@ -24955,7 +25007,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>680</v>
       </c>
@@ -24979,7 +25031,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>681</v>
       </c>
@@ -25003,7 +25055,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>682</v>
       </c>
@@ -25027,7 +25079,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>683</v>
       </c>
@@ -25051,7 +25103,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>684</v>
       </c>
@@ -25075,7 +25127,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>685</v>
       </c>
@@ -25099,7 +25151,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>686</v>
       </c>
@@ -25123,7 +25175,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>687</v>
       </c>
@@ -25147,7 +25199,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>688</v>
       </c>
@@ -25171,7 +25223,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>689</v>
       </c>
@@ -25195,7 +25247,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>690</v>
       </c>
@@ -25219,7 +25271,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>691</v>
       </c>
@@ -25243,7 +25295,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>692</v>
       </c>
@@ -25267,7 +25319,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>693</v>
       </c>
@@ -25291,7 +25343,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>694</v>
       </c>
@@ -25315,7 +25367,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>695</v>
       </c>
@@ -25339,7 +25391,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>696</v>
       </c>
@@ -25363,7 +25415,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>697</v>
       </c>
@@ -25387,7 +25439,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>698</v>
       </c>
@@ -25411,7 +25463,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>699</v>
       </c>
@@ -25435,7 +25487,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>700</v>
       </c>
@@ -25459,7 +25511,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>701</v>
       </c>
@@ -25483,7 +25535,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>702</v>
       </c>
@@ -25507,7 +25559,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>703</v>
       </c>
@@ -25531,7 +25583,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>704</v>
       </c>
@@ -25555,7 +25607,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>705</v>
       </c>
@@ -25579,7 +25631,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>706</v>
       </c>
@@ -25603,7 +25655,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>707</v>
       </c>
@@ -25627,7 +25679,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>708</v>
       </c>
@@ -25651,7 +25703,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>709</v>
       </c>
@@ -25675,7 +25727,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>710</v>
       </c>
@@ -25699,7 +25751,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>711</v>
       </c>
@@ -25723,7 +25775,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>712</v>
       </c>
@@ -25747,7 +25799,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>713</v>
       </c>
@@ -25771,7 +25823,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>714</v>
       </c>
@@ -25795,7 +25847,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>715</v>
       </c>
@@ -25819,7 +25871,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>716</v>
       </c>
@@ -25843,7 +25895,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>717</v>
       </c>
@@ -25867,7 +25919,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>718</v>
       </c>
@@ -25891,7 +25943,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>719</v>
       </c>
@@ -25915,7 +25967,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>720</v>
       </c>
@@ -25939,7 +25991,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>721</v>
       </c>
@@ -25963,7 +26015,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>722</v>
       </c>
@@ -25987,7 +26039,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>723</v>
       </c>
@@ -26011,7 +26063,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>724</v>
       </c>
@@ -26035,7 +26087,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>725</v>
       </c>
@@ -26059,7 +26111,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>726</v>
       </c>
@@ -26083,7 +26135,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>727</v>
       </c>
@@ -26107,7 +26159,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>728</v>
       </c>
@@ -26131,7 +26183,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>729</v>
       </c>
@@ -26155,7 +26207,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>730</v>
       </c>
@@ -26179,7 +26231,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>731</v>
       </c>
@@ -26203,7 +26255,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>732</v>
       </c>
@@ -26227,7 +26279,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>733</v>
       </c>
@@ -26251,7 +26303,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>734</v>
       </c>
@@ -26275,7 +26327,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>735</v>
       </c>
@@ -26299,7 +26351,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>736</v>
       </c>
@@ -26323,7 +26375,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>737</v>
       </c>
@@ -26347,7 +26399,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>738</v>
       </c>
@@ -26371,7 +26423,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>739</v>
       </c>
@@ -26395,7 +26447,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>740</v>
       </c>
@@ -26419,7 +26471,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>741</v>
       </c>
@@ -26443,7 +26495,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>742</v>
       </c>
@@ -26467,7 +26519,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>743</v>
       </c>
@@ -26491,7 +26543,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>744</v>
       </c>
@@ -26515,7 +26567,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>745</v>
       </c>
@@ -26539,7 +26591,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>746</v>
       </c>
@@ -26563,7 +26615,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>747</v>
       </c>
@@ -26587,7 +26639,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>748</v>
       </c>
@@ -26611,7 +26663,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>749</v>
       </c>
@@ -26635,7 +26687,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>750</v>
       </c>
@@ -26659,7 +26711,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>751</v>
       </c>
@@ -26683,7 +26735,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>752</v>
       </c>
@@ -26707,7 +26759,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>753</v>
       </c>
@@ -26731,7 +26783,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>754</v>
       </c>
@@ -26755,7 +26807,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>755</v>
       </c>
@@ -26779,7 +26831,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>756</v>
       </c>
@@ -26803,7 +26855,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>757</v>
       </c>
@@ -26827,7 +26879,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>758</v>
       </c>
@@ -26851,7 +26903,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>759</v>
       </c>
@@ -26875,7 +26927,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>760</v>
       </c>
@@ -26899,7 +26951,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>761</v>
       </c>
@@ -26923,7 +26975,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>762</v>
       </c>
@@ -26947,7 +26999,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>763</v>
       </c>
@@ -26971,7 +27023,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>764</v>
       </c>
@@ -26995,7 +27047,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>765</v>
       </c>
@@ -27019,7 +27071,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>766</v>
       </c>
@@ -27043,7 +27095,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>767</v>
       </c>
@@ -27067,7 +27119,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>768</v>
       </c>
@@ -27091,7 +27143,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>769</v>
       </c>
@@ -27115,7 +27167,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>770</v>
       </c>
@@ -27139,7 +27191,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>771</v>
       </c>
@@ -27163,7 +27215,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>772</v>
       </c>
@@ -27187,7 +27239,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>773</v>
       </c>
@@ -27211,7 +27263,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>774</v>
       </c>
@@ -27235,7 +27287,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>775</v>
       </c>
@@ -27259,7 +27311,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>776</v>
       </c>
@@ -27283,7 +27335,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>777</v>
       </c>
@@ -27307,7 +27359,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>778</v>
       </c>
@@ -27331,7 +27383,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>779</v>
       </c>
@@ -27355,7 +27407,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>780</v>
       </c>
@@ -27379,7 +27431,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>781</v>
       </c>
@@ -27403,7 +27455,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>782</v>
       </c>
@@ -27427,7 +27479,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>783</v>
       </c>
@@ -27451,7 +27503,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>784</v>
       </c>
@@ -27475,7 +27527,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>785</v>
       </c>
@@ -27499,7 +27551,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>786</v>
       </c>
@@ -27523,7 +27575,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>787</v>
       </c>
@@ -27547,7 +27599,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>788</v>
       </c>
@@ -27571,7 +27623,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>789</v>
       </c>
@@ -27595,7 +27647,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>790</v>
       </c>
@@ -27619,7 +27671,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>791</v>
       </c>
@@ -27643,7 +27695,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>792</v>
       </c>
@@ -27667,7 +27719,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>793</v>
       </c>
@@ -27691,7 +27743,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>794</v>
       </c>
@@ -27715,7 +27767,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>795</v>
       </c>
@@ -27739,7 +27791,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>796</v>
       </c>
@@ -27763,7 +27815,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>797</v>
       </c>
@@ -27787,7 +27839,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>798</v>
       </c>
@@ -27811,7 +27863,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>799</v>
       </c>
@@ -27835,7 +27887,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>800</v>
       </c>
@@ -27859,7 +27911,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>801</v>
       </c>
@@ -27883,7 +27935,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>802</v>
       </c>
@@ -27907,7 +27959,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>803</v>
       </c>
@@ -27931,7 +27983,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>804</v>
       </c>
@@ -27955,7 +28007,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>805</v>
       </c>
@@ -27979,7 +28031,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>806</v>
       </c>
@@ -28003,7 +28055,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>807</v>
       </c>
@@ -28027,7 +28079,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>808</v>
       </c>
@@ -28051,7 +28103,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>809</v>
       </c>
@@ -28075,7 +28127,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>810</v>
       </c>
@@ -28099,7 +28151,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>811</v>
       </c>
@@ -28123,7 +28175,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>812</v>
       </c>
@@ -28147,7 +28199,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>813</v>
       </c>
@@ -28171,7 +28223,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>814</v>
       </c>
@@ -28195,7 +28247,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>815</v>
       </c>
@@ -28219,7 +28271,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>816</v>
       </c>
@@ -28243,7 +28295,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>817</v>
       </c>
@@ -28267,7 +28319,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>818</v>
       </c>
@@ -28291,7 +28343,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>819</v>
       </c>
@@ -28315,7 +28367,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>820</v>
       </c>
@@ -28339,7 +28391,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>821</v>
       </c>
@@ -28363,7 +28415,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>822</v>
       </c>
@@ -28387,7 +28439,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>823</v>
       </c>
@@ -28411,7 +28463,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>824</v>
       </c>
@@ -28435,7 +28487,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>825</v>
       </c>
@@ -28459,7 +28511,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>826</v>
       </c>
@@ -28483,7 +28535,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>827</v>
       </c>
@@ -28507,7 +28559,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>828</v>
       </c>
@@ -28531,7 +28583,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>829</v>
       </c>
@@ -28555,7 +28607,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>830</v>
       </c>
@@ -28579,7 +28631,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>831</v>
       </c>
@@ -28603,7 +28655,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>832</v>
       </c>
@@ -28627,7 +28679,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>833</v>
       </c>
@@ -28651,7 +28703,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>834</v>
       </c>
@@ -28675,7 +28727,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>835</v>
       </c>
@@ -28699,7 +28751,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>836</v>
       </c>
@@ -28723,7 +28775,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>837</v>
       </c>
@@ -28747,7 +28799,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>838</v>
       </c>
@@ -28771,7 +28823,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>839</v>
       </c>
@@ -28795,7 +28847,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>840</v>
       </c>
@@ -28819,7 +28871,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>841</v>
       </c>
@@ -28843,7 +28895,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>842</v>
       </c>
@@ -28867,7 +28919,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>843</v>
       </c>
@@ -28891,7 +28943,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>844</v>
       </c>
@@ -28915,7 +28967,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>845</v>
       </c>
@@ -28939,7 +28991,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>846</v>
       </c>
@@ -28963,7 +29015,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>847</v>
       </c>
@@ -28987,7 +29039,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>848</v>
       </c>
@@ -29011,7 +29063,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>849</v>
       </c>
@@ -29035,7 +29087,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>850</v>
       </c>
@@ -29059,7 +29111,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>851</v>
       </c>
@@ -29083,7 +29135,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>852</v>
       </c>
@@ -29107,7 +29159,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>853</v>
       </c>
@@ -29131,7 +29183,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>854</v>
       </c>
@@ -29155,7 +29207,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>855</v>
       </c>
@@ -29179,7 +29231,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>856</v>
       </c>
@@ -29203,7 +29255,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>857</v>
       </c>
@@ -29227,7 +29279,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>858</v>
       </c>
@@ -29251,7 +29303,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>859</v>
       </c>
@@ -29275,7 +29327,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>860</v>
       </c>
@@ -29299,7 +29351,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>861</v>
       </c>
@@ -29323,7 +29375,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>862</v>
       </c>
@@ -29347,7 +29399,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>863</v>
       </c>
@@ -29371,7 +29423,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>864</v>
       </c>
@@ -29395,7 +29447,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>865</v>
       </c>
@@ -29419,7 +29471,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>866</v>
       </c>
@@ -29443,7 +29495,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>867</v>
       </c>
@@ -29467,7 +29519,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>868</v>
       </c>
@@ -29491,7 +29543,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>869</v>
       </c>
@@ -29515,7 +29567,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>870</v>
       </c>
@@ -29539,7 +29591,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>871</v>
       </c>
@@ -29563,7 +29615,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>872</v>
       </c>
@@ -29587,7 +29639,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>873</v>
       </c>
@@ -29611,7 +29663,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>874</v>
       </c>
@@ -29635,7 +29687,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>875</v>
       </c>
@@ -29659,7 +29711,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>876</v>
       </c>
@@ -29683,7 +29735,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>877</v>
       </c>
@@ -29707,7 +29759,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>878</v>
       </c>
@@ -29731,7 +29783,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>879</v>
       </c>
@@ -29755,7 +29807,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>880</v>
       </c>
@@ -29779,7 +29831,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>881</v>
       </c>
@@ -29803,7 +29855,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>882</v>
       </c>
@@ -29827,7 +29879,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>883</v>
       </c>
@@ -29851,7 +29903,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>884</v>
       </c>
@@ -29875,7 +29927,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>885</v>
       </c>
@@ -29899,7 +29951,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>886</v>
       </c>
@@ -29923,7 +29975,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>887</v>
       </c>
@@ -29947,7 +29999,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>888</v>
       </c>
@@ -29971,7 +30023,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>889</v>
       </c>
@@ -29995,7 +30047,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>890</v>
       </c>
@@ -30019,7 +30071,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>891</v>
       </c>
@@ -30043,7 +30095,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>892</v>
       </c>
@@ -30067,7 +30119,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>893</v>
       </c>
@@ -30091,7 +30143,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>894</v>
       </c>
@@ -30115,7 +30167,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>895</v>
       </c>
@@ -30139,7 +30191,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>896</v>
       </c>
@@ -30163,7 +30215,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>897</v>
       </c>
@@ -30187,7 +30239,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>898</v>
       </c>
@@ -30211,7 +30263,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>899</v>
       </c>
@@ -30235,7 +30287,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>900</v>
       </c>
@@ -30259,7 +30311,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>901</v>
       </c>
@@ -30283,63 +30335,68 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>902</v>
       </c>
-      <c r="B903" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C903" t="s">
-        <v>2629</v>
-      </c>
-      <c r="D903">
-        <f>MATCH(E903, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>40</v>
-      </c>
-      <c r="E903" t="s">
-        <v>2630</v>
+      <c r="B903" s="3" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C903" s="3" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D903" s="2">
+        <v>110</v>
+      </c>
+      <c r="E903" s="3" t="s">
+        <v>2749</v>
       </c>
       <c r="F903" t="s">
-        <v>44</v>
-      </c>
-      <c r="G903" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2750</v>
+      </c>
+      <c r="G903" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="H903" s="4" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>903</v>
       </c>
-      <c r="B904" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C904" t="s">
+      <c r="B904" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C904" s="3" t="s">
         <v>2632</v>
       </c>
       <c r="D904">
         <f>MATCH(E904, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E904" t="s">
-        <v>2630</v>
+        <v>2617</v>
       </c>
       <c r="F904" t="s">
         <v>48</v>
       </c>
-      <c r="G904" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G904" s="3" t="s">
+        <v>2746</v>
+      </c>
+      <c r="H904" s="5" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>904</v>
       </c>
       <c r="B905" t="s">
-        <v>2634</v>
+        <v>2628</v>
       </c>
       <c r="C905" t="s">
-        <v>2635</v>
+        <v>2629</v>
       </c>
       <c r="D905">
         <f>MATCH(E905, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30349,21 +30406,21 @@
         <v>2630</v>
       </c>
       <c r="F905" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G905" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>905</v>
       </c>
       <c r="B906" t="s">
-        <v>2637</v>
+        <v>2631</v>
       </c>
       <c r="C906" t="s">
-        <v>2638</v>
+        <v>2632</v>
       </c>
       <c r="D906">
         <f>MATCH(E906, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30373,21 +30430,21 @@
         <v>2630</v>
       </c>
       <c r="F906" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G906" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>906</v>
       </c>
       <c r="B907" t="s">
-        <v>2640</v>
+        <v>2634</v>
       </c>
       <c r="C907" t="s">
-        <v>2641</v>
+        <v>2635</v>
       </c>
       <c r="D907">
         <f>MATCH(E907, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30400,18 +30457,18 @@
         <v>107</v>
       </c>
       <c r="G907" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>907</v>
       </c>
       <c r="B908" t="s">
-        <v>2643</v>
+        <v>2637</v>
       </c>
       <c r="C908" t="s">
-        <v>2644</v>
+        <v>2638</v>
       </c>
       <c r="D908">
         <f>MATCH(E908, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30424,18 +30481,18 @@
         <v>44</v>
       </c>
       <c r="G908" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>908</v>
       </c>
       <c r="B909" t="s">
-        <v>2646</v>
+        <v>2640</v>
       </c>
       <c r="C909" t="s">
-        <v>2647</v>
+        <v>2641</v>
       </c>
       <c r="D909">
         <f>MATCH(E909, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30445,21 +30502,21 @@
         <v>2630</v>
       </c>
       <c r="F909" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G909" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>909</v>
       </c>
       <c r="B910" t="s">
-        <v>2649</v>
+        <v>2643</v>
       </c>
       <c r="C910" t="s">
-        <v>2650</v>
+        <v>2644</v>
       </c>
       <c r="D910">
         <f>MATCH(E910, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30472,18 +30529,18 @@
         <v>44</v>
       </c>
       <c r="G910" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>910</v>
       </c>
       <c r="B911" t="s">
-        <v>2652</v>
+        <v>2646</v>
       </c>
       <c r="C911" t="s">
-        <v>2653</v>
+        <v>2647</v>
       </c>
       <c r="D911">
         <f>MATCH(E911, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30493,21 +30550,21 @@
         <v>2630</v>
       </c>
       <c r="F911" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G911" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>911</v>
       </c>
       <c r="B912" t="s">
-        <v>2655</v>
+        <v>2649</v>
       </c>
       <c r="C912" t="s">
-        <v>2656</v>
+        <v>2650</v>
       </c>
       <c r="D912">
         <f>MATCH(E912, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30517,117 +30574,117 @@
         <v>2630</v>
       </c>
       <c r="F912" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G912" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>912</v>
       </c>
       <c r="B913" t="s">
-        <v>2657</v>
+        <v>2652</v>
       </c>
       <c r="C913" t="s">
-        <v>2658</v>
+        <v>2653</v>
       </c>
       <c r="D913">
         <f>MATCH(E913, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E913" t="s">
-        <v>2659</v>
+        <v>2630</v>
       </c>
       <c r="F913" t="s">
         <v>107</v>
       </c>
       <c r="G913" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>913</v>
       </c>
       <c r="B914" t="s">
-        <v>2661</v>
+        <v>2655</v>
       </c>
       <c r="C914" t="s">
-        <v>2662</v>
+        <v>2656</v>
       </c>
       <c r="D914">
         <f>MATCH(E914, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E914" t="s">
-        <v>2659</v>
+        <v>2630</v>
       </c>
       <c r="F914" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G914" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>914</v>
       </c>
       <c r="B915" t="s">
-        <v>2664</v>
+        <v>2657</v>
       </c>
       <c r="C915" t="s">
-        <v>2665</v>
+        <v>2658</v>
       </c>
       <c r="D915">
         <f>MATCH(E915, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E915" t="s">
-        <v>2666</v>
+        <v>2659</v>
       </c>
       <c r="F915" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G915" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>915</v>
       </c>
       <c r="B916" t="s">
-        <v>2668</v>
+        <v>2661</v>
       </c>
       <c r="C916" t="s">
-        <v>2669</v>
+        <v>2662</v>
       </c>
       <c r="D916">
         <f>MATCH(E916, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E916" t="s">
-        <v>2666</v>
+        <v>2659</v>
       </c>
       <c r="F916" t="s">
         <v>44</v>
       </c>
       <c r="G916" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>916</v>
       </c>
       <c r="B917" t="s">
-        <v>2670</v>
+        <v>2664</v>
       </c>
       <c r="C917" t="s">
-        <v>2671</v>
+        <v>2665</v>
       </c>
       <c r="D917">
         <f>MATCH(E917, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30637,21 +30694,21 @@
         <v>2666</v>
       </c>
       <c r="F917" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G917" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>917</v>
       </c>
       <c r="B918" t="s">
-        <v>2672</v>
+        <v>2668</v>
       </c>
       <c r="C918" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="D918">
         <f>MATCH(E918, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30661,117 +30718,117 @@
         <v>2666</v>
       </c>
       <c r="F918" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G918" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>918</v>
       </c>
       <c r="B919" t="s">
-        <v>2675</v>
+        <v>2670</v>
       </c>
       <c r="C919" t="s">
-        <v>2676</v>
+        <v>2671</v>
       </c>
       <c r="D919">
         <f>MATCH(E919, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E919" t="s">
-        <v>2677</v>
+        <v>2666</v>
       </c>
       <c r="F919" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G919" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>919</v>
       </c>
       <c r="B920" t="s">
-        <v>2679</v>
+        <v>2672</v>
       </c>
       <c r="C920" t="s">
-        <v>2680</v>
+        <v>2673</v>
       </c>
       <c r="D920">
         <f>MATCH(E920, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E920" t="s">
-        <v>2677</v>
+        <v>2666</v>
       </c>
       <c r="F920" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G920" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>920</v>
       </c>
       <c r="B921" t="s">
-        <v>2681</v>
+        <v>2675</v>
       </c>
       <c r="C921" t="s">
-        <v>2682</v>
+        <v>2676</v>
       </c>
       <c r="D921">
         <f>MATCH(E921, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E921" t="s">
-        <v>2682</v>
+        <v>2677</v>
       </c>
       <c r="F921" t="s">
         <v>44</v>
       </c>
       <c r="G921" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>921</v>
       </c>
       <c r="B922" t="s">
-        <v>2684</v>
+        <v>2679</v>
       </c>
       <c r="C922" t="s">
-        <v>2685</v>
+        <v>2680</v>
       </c>
       <c r="D922">
         <f>MATCH(E922, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
+        <v>43</v>
+      </c>
+      <c r="E922" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F922" t="s">
         <v>44</v>
       </c>
-      <c r="E922" t="s">
-        <v>2682</v>
-      </c>
-      <c r="F922" t="s">
-        <v>87</v>
-      </c>
       <c r="G922" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>922</v>
       </c>
       <c r="B923" t="s">
-        <v>2687</v>
+        <v>2681</v>
       </c>
       <c r="C923" t="s">
-        <v>2688</v>
+        <v>2682</v>
       </c>
       <c r="D923">
         <f>MATCH(E923, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30784,18 +30841,18 @@
         <v>44</v>
       </c>
       <c r="G923" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>923</v>
       </c>
       <c r="B924" t="s">
-        <v>2690</v>
+        <v>2684</v>
       </c>
       <c r="C924" t="s">
-        <v>2691</v>
+        <v>2685</v>
       </c>
       <c r="D924">
         <f>MATCH(E924, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30805,21 +30862,21 @@
         <v>2682</v>
       </c>
       <c r="F924" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G924" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>924</v>
       </c>
       <c r="B925" t="s">
-        <v>2693</v>
+        <v>2687</v>
       </c>
       <c r="C925" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="D925">
         <f>MATCH(E925, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30829,21 +30886,21 @@
         <v>2682</v>
       </c>
       <c r="F925" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G925" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>925</v>
       </c>
       <c r="B926" t="s">
-        <v>2695</v>
+        <v>2690</v>
       </c>
       <c r="C926" t="s">
-        <v>2696</v>
+        <v>2691</v>
       </c>
       <c r="D926">
         <f>MATCH(E926, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30853,21 +30910,21 @@
         <v>2682</v>
       </c>
       <c r="F926" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G926" t="s">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>926</v>
       </c>
       <c r="B927" t="s">
-        <v>2698</v>
+        <v>2693</v>
       </c>
       <c r="C927" t="s">
-        <v>2696</v>
+        <v>2691</v>
       </c>
       <c r="D927">
         <f>MATCH(E927, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30877,18 +30934,18 @@
         <v>2682</v>
       </c>
       <c r="F927" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G927" t="s">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>927</v>
       </c>
       <c r="B928" t="s">
-        <v>2700</v>
+        <v>2695</v>
       </c>
       <c r="C928" t="s">
         <v>2696</v>
@@ -30901,21 +30958,21 @@
         <v>2682</v>
       </c>
       <c r="F928" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G928" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>928</v>
       </c>
       <c r="B929" t="s">
-        <v>2702</v>
+        <v>2698</v>
       </c>
       <c r="C929" t="s">
-        <v>2703</v>
+        <v>2696</v>
       </c>
       <c r="D929">
         <f>MATCH(E929, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30925,21 +30982,21 @@
         <v>2682</v>
       </c>
       <c r="F929" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G929" t="s">
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>929</v>
       </c>
       <c r="B930" t="s">
-        <v>2705</v>
+        <v>2700</v>
       </c>
       <c r="C930" t="s">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="D930">
         <f>MATCH(E930, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30949,21 +31006,21 @@
         <v>2682</v>
       </c>
       <c r="F930" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G930" t="s">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>930</v>
       </c>
       <c r="B931" t="s">
-        <v>2708</v>
+        <v>2702</v>
       </c>
       <c r="C931" t="s">
-        <v>2708</v>
+        <v>2703</v>
       </c>
       <c r="D931">
         <f>MATCH(E931, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30973,21 +31030,21 @@
         <v>2682</v>
       </c>
       <c r="F931" t="s">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="G931" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>931</v>
       </c>
       <c r="B932" t="s">
-        <v>2710</v>
+        <v>2705</v>
       </c>
       <c r="C932" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
       <c r="D932">
         <f>MATCH(E932, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -30997,21 +31054,21 @@
         <v>2682</v>
       </c>
       <c r="F932" t="s">
-        <v>389</v>
+        <v>24</v>
       </c>
       <c r="G932" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>932</v>
       </c>
       <c r="B933" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
       <c r="C933" t="s">
-        <v>2713</v>
+        <v>2708</v>
       </c>
       <c r="D933">
         <f>MATCH(E933, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31021,21 +31078,21 @@
         <v>2682</v>
       </c>
       <c r="F933" t="s">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="G933" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>933</v>
       </c>
       <c r="B934" t="s">
-        <v>2715</v>
+        <v>2710</v>
       </c>
       <c r="C934" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="D934">
         <f>MATCH(E934, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31045,21 +31102,21 @@
         <v>2682</v>
       </c>
       <c r="F934" t="s">
-        <v>594</v>
+        <v>389</v>
       </c>
       <c r="G934" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>934</v>
       </c>
       <c r="B935" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="C935" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="D935">
         <f>MATCH(E935, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31072,18 +31129,18 @@
         <v>44</v>
       </c>
       <c r="G935" t="s">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>935</v>
       </c>
       <c r="B936" t="s">
-        <v>2721</v>
+        <v>2715</v>
       </c>
       <c r="C936" t="s">
-        <v>2722</v>
+        <v>2716</v>
       </c>
       <c r="D936">
         <f>MATCH(E936, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31093,21 +31150,21 @@
         <v>2682</v>
       </c>
       <c r="F936" t="s">
-        <v>87</v>
+        <v>594</v>
       </c>
       <c r="G936" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>936</v>
       </c>
       <c r="B937" t="s">
-        <v>2724</v>
+        <v>2718</v>
       </c>
       <c r="C937" t="s">
-        <v>2725</v>
+        <v>2719</v>
       </c>
       <c r="D937">
         <f>MATCH(E937, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31117,21 +31174,21 @@
         <v>2682</v>
       </c>
       <c r="F937" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G937" t="s">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>937</v>
       </c>
       <c r="B938" t="s">
-        <v>2727</v>
+        <v>2721</v>
       </c>
       <c r="C938" t="s">
-        <v>2728</v>
+        <v>2722</v>
       </c>
       <c r="D938">
         <f>MATCH(E938, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31141,21 +31198,21 @@
         <v>2682</v>
       </c>
       <c r="F938" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G938" t="s">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>938</v>
       </c>
       <c r="B939" t="s">
-        <v>2729</v>
+        <v>2724</v>
       </c>
       <c r="C939" t="s">
-        <v>2730</v>
+        <v>2725</v>
       </c>
       <c r="D939">
         <f>MATCH(E939, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31165,21 +31222,21 @@
         <v>2682</v>
       </c>
       <c r="F939" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G939" t="s">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>939</v>
       </c>
       <c r="B940" t="s">
-        <v>2732</v>
+        <v>2727</v>
       </c>
       <c r="C940" t="s">
-        <v>2733</v>
+        <v>2728</v>
       </c>
       <c r="D940">
         <f>MATCH(E940, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31192,18 +31249,18 @@
         <v>44</v>
       </c>
       <c r="G940" t="s">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>940</v>
       </c>
       <c r="B941" t="s">
-        <v>2735</v>
+        <v>2729</v>
       </c>
       <c r="C941" t="s">
-        <v>2736</v>
+        <v>2730</v>
       </c>
       <c r="D941">
         <f>MATCH(E941, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31213,21 +31270,21 @@
         <v>2682</v>
       </c>
       <c r="F941" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G941" t="s">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>941</v>
       </c>
       <c r="B942" t="s">
-        <v>2738</v>
+        <v>2732</v>
       </c>
       <c r="C942" t="s">
-        <v>2739</v>
+        <v>2733</v>
       </c>
       <c r="D942">
         <f>MATCH(E942, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31237,21 +31294,21 @@
         <v>2682</v>
       </c>
       <c r="F942" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G942" t="s">
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>942</v>
       </c>
       <c r="B943" t="s">
-        <v>2741</v>
+        <v>2735</v>
       </c>
       <c r="C943" t="s">
-        <v>2742</v>
+        <v>2736</v>
       </c>
       <c r="D943">
         <f>MATCH(E943, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
@@ -31261,18 +31318,69 @@
         <v>2682</v>
       </c>
       <c r="F943" t="s">
+        <v>107</v>
+      </c>
+      <c r="G943" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>943</v>
+      </c>
+      <c r="B944" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C944" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D944">
+        <f>MATCH(E944, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
+        <v>44</v>
+      </c>
+      <c r="E944" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F944" t="s">
+        <v>131</v>
+      </c>
+      <c r="G944" t="s">
+        <v>2740</v>
+      </c>
+      <c r="H944"/>
+    </row>
+    <row r="945" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>944</v>
+      </c>
+      <c r="B945" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C945" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D945">
+        <f>MATCH(E945, {"あ","い","う","え","お","か","き","く","け","こ","さ","し","す","せ","そ","た","ち","つ","て","と","な","に","ぬ","ね","の","は","ひ","ふ","へ","ほ","ま","み","む","め","も","や","ゆ","よ","ら","り","る","れ","ろ","わ","を","ん","が","ぎ","ぐ","げ","ご","ざ","じ","ず","ぜ","ぞ","だ","ぢ","づ","で","ど","ば","び","ぶ","べ","ぼ","ぱ","ぴ","ぷ","ぺ","ぽ","ア","イ","ウ","エ","オ","カ","キ","ク","ケ","コ","サ","シ","ス","セ","ソ","タ","チ","ツ","テ","ト","ナ","ニ","ヌ","ネ","ノ","ハ","ヒ","フ","ヘ","ホ","マ","ミ","ム","メ","モ","ヤ","ユ","ヨ","ラ","リ","ル","レ","ロ","ワ","ヲ","ン","ガ","ギ","グ","ゲ","ゴ","ザ","ジ","ズ","ゼ","ゾ","ダ","ヂ","ヅ","デ","ド","バ","ビ","ブ","ベ","ボ","パ","ピ","プ","ペ","ポ"}, 0)</f>
+        <v>44</v>
+      </c>
+      <c r="E945" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F945" t="s">
         <v>94</v>
       </c>
-      <c r="G943" t="s">
+      <c r="G945" t="s">
         <v>2743</v>
       </c>
+      <c r="H945"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H943">
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H945">
       <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>